--- a/水泥.excel/1101/1101(102.1~105.12)EPM.xlsx
+++ b/水泥.excel/1101/1101(102.1~105.12)EPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>營業收入淨額_x</t>
   </si>
@@ -163,283 +163,7 @@
     <t>本月</t>
   </si>
   <si>
-    <t>9,134,465</t>
-  </si>
-  <si>
-    <t>5,540,346</t>
-  </si>
-  <si>
-    <t>9,457,971</t>
-  </si>
-  <si>
-    <t>9,919,269</t>
-  </si>
-  <si>
-    <t>9,543,782</t>
-  </si>
-  <si>
-    <t>9,517,630</t>
-  </si>
-  <si>
-    <t>9,875,888</t>
-  </si>
-  <si>
-    <t>9,835,143</t>
-  </si>
-  <si>
-    <t>10,060,975</t>
-  </si>
-  <si>
-    <t>10,654,077</t>
-  </si>
-  <si>
-    <t>11,201,088</t>
-  </si>
-  <si>
-    <t>11,416,657</t>
-  </si>
-  <si>
-    <t>9,801,691</t>
-  </si>
-  <si>
-    <t>6,087,866</t>
-  </si>
-  <si>
-    <t>10,834,889</t>
-  </si>
-  <si>
-    <t>11,561,838</t>
-  </si>
-  <si>
-    <t>10,625,467</t>
-  </si>
-  <si>
-    <t>9,677,933</t>
-  </si>
-  <si>
-    <t>10,327,799</t>
-  </si>
-  <si>
-    <t>9,951,133</t>
-  </si>
-  <si>
-    <t>9,816,025</t>
-  </si>
-  <si>
-    <t>10,429,319</t>
-  </si>
-  <si>
-    <t>9,298,656</t>
-  </si>
-  <si>
-    <t>9,913,147</t>
-  </si>
-  <si>
-    <t>8,921,719</t>
-  </si>
-  <si>
-    <t>4,823,318</t>
-  </si>
-  <si>
-    <t>7,695,107</t>
-  </si>
-  <si>
-    <t>8,468,346</t>
-  </si>
-  <si>
-    <t>7,989,971</t>
-  </si>
-  <si>
-    <t>8,545,853</t>
-  </si>
-  <si>
-    <t>8,250,361</t>
-  </si>
-  <si>
-    <t>7,397,417</t>
-  </si>
-  <si>
-    <t>7,026,214</t>
-  </si>
-  <si>
-    <t>8,081,068</t>
-  </si>
-  <si>
-    <t>8,003,992</t>
-  </si>
-  <si>
-    <t>8,543,685</t>
-  </si>
-  <si>
-    <t>6,575,590</t>
-  </si>
-  <si>
-    <t>3,632,053</t>
-  </si>
-  <si>
-    <t>7,523,593</t>
-  </si>
-  <si>
-    <t>7,255,945</t>
-  </si>
-  <si>
-    <t>7,866,517</t>
-  </si>
-  <si>
-    <t>7,813,036</t>
-  </si>
-  <si>
-    <t>7,816,038</t>
-  </si>
-  <si>
-    <t>7,454,905</t>
-  </si>
-  <si>
-    <t>7,087,046</t>
-  </si>
-  <si>
-    <t>8,261,376</t>
-  </si>
-  <si>
-    <t>8,866,988</t>
-  </si>
-  <si>
-    <t>9,418,581</t>
-  </si>
-  <si>
     <t>本年累計</t>
-  </si>
-  <si>
-    <t>14,674,811</t>
-  </si>
-  <si>
-    <t>24,132,782</t>
-  </si>
-  <si>
-    <t>34,052,051</t>
-  </si>
-  <si>
-    <t>43,595,833</t>
-  </si>
-  <si>
-    <t>53,113,464</t>
-  </si>
-  <si>
-    <t>62,989,351</t>
-  </si>
-  <si>
-    <t>72,824,494</t>
-  </si>
-  <si>
-    <t>82,885,470</t>
-  </si>
-  <si>
-    <t>93,539,547</t>
-  </si>
-  <si>
-    <t>104,740,635</t>
-  </si>
-  <si>
-    <t>116,157,292</t>
-  </si>
-  <si>
-    <t>15,889,557</t>
-  </si>
-  <si>
-    <t>26,724,446</t>
-  </si>
-  <si>
-    <t>38,286,284</t>
-  </si>
-  <si>
-    <t>48,911,751</t>
-  </si>
-  <si>
-    <t>58,589,684</t>
-  </si>
-  <si>
-    <t>68,917,483</t>
-  </si>
-  <si>
-    <t>78,868,616</t>
-  </si>
-  <si>
-    <t>88,684,641</t>
-  </si>
-  <si>
-    <t>99,113,960</t>
-  </si>
-  <si>
-    <t>108,412,616</t>
-  </si>
-  <si>
-    <t>118,325,763</t>
-  </si>
-  <si>
-    <t>13,745,037</t>
-  </si>
-  <si>
-    <t>21,440,143</t>
-  </si>
-  <si>
-    <t>29,908,489</t>
-  </si>
-  <si>
-    <t>37,898,460</t>
-  </si>
-  <si>
-    <t>46,444,313</t>
-  </si>
-  <si>
-    <t>54,694,674</t>
-  </si>
-  <si>
-    <t>62,092,091</t>
-  </si>
-  <si>
-    <t>69,118,305</t>
-  </si>
-  <si>
-    <t>77,199,373</t>
-  </si>
-  <si>
-    <t>85,203,365</t>
-  </si>
-  <si>
-    <t>93,747,048</t>
-  </si>
-  <si>
-    <t>10,207,643</t>
-  </si>
-  <si>
-    <t>17,731,236</t>
-  </si>
-  <si>
-    <t>24,987,181</t>
-  </si>
-  <si>
-    <t>32,853,698</t>
-  </si>
-  <si>
-    <t>40,666,734</t>
-  </si>
-  <si>
-    <t>48,482,772</t>
-  </si>
-  <si>
-    <t>55,937,677</t>
-  </si>
-  <si>
-    <t>63,024,723</t>
-  </si>
-  <si>
-    <t>71,286,099</t>
-  </si>
-  <si>
-    <t>80,153,087</t>
-  </si>
-  <si>
-    <t>89,571,668</t>
   </si>
 </sst>
 </file>
@@ -946,298 +670,298 @@
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>96</v>
+      <c r="B2" t="n">
+        <v>9134465</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5540346</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9457971</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9919269</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9543782</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9517630</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9875888</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9835143</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10060975</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10654077</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11201088</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11416657</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9801691</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6087866</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10834889</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11561838</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10625467</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9677933</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10327799</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9951133</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9816025</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10429319</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9298656</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9913147</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8921719</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4823318</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7695107</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8468346</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7989971</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8545853</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8250361</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7397417</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7026214</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8081068</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8003992</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>8543685</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6575590</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>3632053</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7523593</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7255945</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7866517</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>7813036</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>7816038</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>7454905</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>7087046</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8261376</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>8866988</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>9418581</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>141</v>
+      <c r="B3" t="n">
+        <v>9134465</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14674811</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24132782</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34052051</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43595833</v>
+      </c>
+      <c r="G3" t="n">
+        <v>53113464</v>
+      </c>
+      <c r="H3" t="n">
+        <v>62989351</v>
+      </c>
+      <c r="I3" t="n">
+        <v>72824494</v>
+      </c>
+      <c r="J3" t="n">
+        <v>82885470</v>
+      </c>
+      <c r="K3" t="n">
+        <v>93539547</v>
+      </c>
+      <c r="L3" t="n">
+        <v>104740635</v>
+      </c>
+      <c r="M3" t="n">
+        <v>116157292</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9801691</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15889557</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26724446</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>38286284</v>
+      </c>
+      <c r="R3" t="n">
+        <v>48911751</v>
+      </c>
+      <c r="S3" t="n">
+        <v>58589684</v>
+      </c>
+      <c r="T3" t="n">
+        <v>68917483</v>
+      </c>
+      <c r="U3" t="n">
+        <v>78868616</v>
+      </c>
+      <c r="V3" t="n">
+        <v>88684641</v>
+      </c>
+      <c r="W3" t="n">
+        <v>99113960</v>
+      </c>
+      <c r="X3" t="n">
+        <v>108412616</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>118325763</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8921719</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13745037</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21440143</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>29908489</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>37898460</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>46444313</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>54694674</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>62092091</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>69118305</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>77199373</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>85203365</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>93747048</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6575590</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10207643</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>17731236</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>24987181</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>32853698</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>40666734</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>48482772</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>55937677</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>63024723</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>71286099</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>80153087</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>89571668</v>
       </c>
     </row>
   </sheetData>
